--- a/operations/4_file_system/file_read_time/remote_log/remote_file_read_time_plots.xlsx
+++ b/operations/4_file_system/file_read_time/remote_log/remote_file_read_time_plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohitgupta/Desktop/UCSD/quarter_4/cse_221/project/CSE221_project/operations/4_file_system/file_read_time/remote_log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAE0ED8-6B85-4949-AE77-A524EFD3D8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826993EC-71F7-8B46-B497-914BBA71EB78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{0346AA52-3F2D-F046-8D9C-B2F2F9D318FC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>File read time random</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -4171,10 +4174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2590BD56-2612-DD42-8A10-B8A6AACC1227}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4825,6 +4828,22 @@
         <v>24.8188268192946</v>
       </c>
     </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(C3:C22)</f>
+        <v>60779303.649999999</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(L3:L22)</f>
+        <v>29624053</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
